--- a/results/pvalue_OFFSIDES_rare_DGI_AUROCperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_rare_DGI_AUROCperdrug.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>32.84</t>
+          <t>21.976</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>28.999</t>
+          <t>20.079</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.687</t>
+          <t>9.016</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>33.036</t>
+          <t>20.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.069</t>
+          <t>0.89</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.476</t>
+          <t>-0.148</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
